--- a/bin/selenium2/testcases.xlsx
+++ b/bin/selenium2/testcases.xlsx
@@ -3,29 +3,35 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\x3\htdocs\selenium2\src\selenium2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A693CC-5791-4F12-9DDD-129EB20D69CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA5D1CA-104B-4270-ADBC-F756E5DB35CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2436" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t>dob</t>
   </si>
@@ -120,18 +126,6 @@
     <t>delhi</t>
   </si>
   <si>
-    <t>name1</t>
-  </si>
-  <si>
-    <t>name2</t>
-  </si>
-  <si>
-    <t>name3</t>
-  </si>
-  <si>
-    <t>name4</t>
-  </si>
-  <si>
     <t>name1@gmail.com</t>
   </si>
   <si>
@@ -144,30 +138,15 @@
     <t>school</t>
   </si>
   <si>
-    <t>dir1</t>
-  </si>
-  <si>
-    <t>dir2</t>
-  </si>
-  <si>
-    <t>dir3</t>
-  </si>
-  <si>
     <t>kolkata</t>
   </si>
   <si>
     <t>kharagpur</t>
   </si>
   <si>
-    <t>dir4</t>
-  </si>
-  <si>
     <t>08-02-2020</t>
   </si>
   <si>
-    <t>name5</t>
-  </si>
-  <si>
     <t>08-01-2000</t>
   </si>
   <si>
@@ -282,17 +261,67 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Failed</t>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Expected Res</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>six</t>
+  </si>
+  <si>
+    <t>seven</t>
+  </si>
+  <si>
+    <t>dir one</t>
+  </si>
+  <si>
+    <t>dir two</t>
+  </si>
+  <si>
+    <t>dir three</t>
+  </si>
+  <si>
+    <t>dir four</t>
+  </si>
+  <si>
+    <t>dir five</t>
+  </si>
+  <si>
+    <t>dir six</t>
+  </si>
+  <si>
+    <t>dir seven</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Declined</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,34 +653,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" style="4" width="8.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.6640625" collapsed="true"/>
-    <col min="5" max="8" customWidth="true" style="1" width="12.77734375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="4" width="12.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="14.44140625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="11.21875" collapsed="true"/>
+    <col min="1" max="2" width="8.88671875" style="4" collapsed="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="8" width="12.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12" style="4" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="10.88671875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="12.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>29</v>
@@ -660,22 +691,22 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -695,49 +726,58 @@
       <c r="Q1" t="s">
         <v>6</v>
       </c>
+      <c r="R1" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K2" s="4">
         <v>123456</v>
       </c>
       <c r="L2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>8</v>
@@ -748,40 +788,40 @@
       <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" t="s">
-        <v>85</v>
+      <c r="R2" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="K3" s="4">
         <v>123586</v>
@@ -790,10 +830,10 @@
         <v>12</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>8</v>
@@ -804,52 +844,52 @@
       <c r="Q3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="s">
-        <v>86</v>
+      <c r="R3" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K4" s="4">
         <v>789456</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
       <c r="N4" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>24</v>
@@ -857,38 +897,38 @@
       <c r="P4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R4" t="s">
-        <v>86</v>
+      <c r="R4" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I5" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K5" s="4">
         <v>545655</v>
@@ -900,7 +940,7 @@
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="1" t="s">
@@ -909,34 +949,34 @@
       <c r="Q5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R5" t="s">
-        <v>86</v>
+      <c r="R5" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K6" s="4">
         <v>1234568</v>
@@ -948,7 +988,7 @@
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
         <v>24</v>
@@ -959,82 +999,87 @@
       <c r="Q6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R6" t="s">
-        <v>86</v>
+      <c r="R6" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7"/>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
         <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K7" s="4">
         <v>254112</v>
       </c>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>30</v>
       </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
       <c r="O7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R7" t="s">
-        <v>86</v>
+      <c r="R7" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="K8" s="4">
         <v>12345</v>
@@ -1046,22 +1091,22 @@
         <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
         <v>24</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R8" t="s">
-        <v>86</v>
+      <c r="R8" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="D9" s="3"/>
       <c r="Q9" s="2"/>
     </row>

--- a/bin/selenium2/testcases.xlsx
+++ b/bin/selenium2/testcases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\x3\htdocs\selenium2\src\selenium2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA5D1CA-104B-4270-ADBC-F756E5DB35CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8E38FB-8F35-44BB-A392-39F89DA88ABD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="96">
   <si>
     <t>dob</t>
   </si>
@@ -316,12 +316,16 @@
   </si>
   <si>
     <t>Declined</t>
+  </si>
+  <si>
+    <t>Passed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -656,22 +660,22 @@
   <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="S2" sqref="S2:T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="4" collapsed="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="8" width="12.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12" style="4" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.21875" style="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" style="4" width="8.88671875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.6640625" collapsed="true"/>
+    <col min="5" max="8" customWidth="true" style="1" width="12.77734375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="4" width="12.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="30.109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="1" width="11.21875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="12.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
@@ -791,6 +795,12 @@
       <c r="R2" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="S2" t="s">
+        <v>93</v>
+      </c>
+      <c r="T2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -847,6 +857,12 @@
       <c r="R3" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="T3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -900,6 +916,12 @@
       <c r="R4" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -952,6 +974,12 @@
       <c r="R5" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1002,6 +1030,12 @@
       <c r="R6" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="T6" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1052,6 +1086,12 @@
       <c r="R7" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T7" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1104,6 +1144,12 @@
       </c>
       <c r="R8" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="T8" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
